--- a/Clasifica_GEE/Matriz_confusion/Matriz_confusion.xlsx
+++ b/Clasifica_GEE/Matriz_confusion/Matriz_confusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisse\OneDrive\Escritorio\Repositorio\Documentos\Clasifica_GEE\Matriz_confusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEE90B1-5D5F-4BC1-8E29-674284663C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFCAA8-89EE-4F57-9D56-A64278747D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7B65278-F974-4EA6-9EFF-EA4A41C71C3C}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{C7B65278-F974-4EA6-9EFF-EA4A41C71C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -148,12 +148,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2ECCDC-9A94-4EBF-AEFA-638314812A8E}">
-  <dimension ref="B3:L8"/>
+  <dimension ref="B3:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,32 +501,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -562,28 +563,28 @@
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>0.69610052978002901</v>
+        <v>0.68825182536907503</v>
       </c>
       <c r="D6" s="3">
-        <v>0.87559439615937396</v>
+        <v>0.87235783879043804</v>
       </c>
       <c r="E6" s="3">
-        <v>0.82318767745086696</v>
+        <v>0.81860451421985403</v>
       </c>
       <c r="F6" s="3">
-        <v>0.17681232254913201</v>
+        <v>0.181395485780145</v>
       </c>
       <c r="G6" s="3">
-        <v>0.69764501240075605</v>
+        <v>0.68977889356898303</v>
       </c>
       <c r="H6" s="3">
-        <v>0.69687191532924597</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.92813451307291805</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.69945328153364905</v>
+        <v>0.68901451335679997</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.95712877497983695</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.55755480686014502</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -591,28 +592,28 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>0.60870473946358805</v>
+        <v>0.65848624235183695</v>
       </c>
       <c r="D7" s="3">
-        <v>0.83955513740376697</v>
+        <v>0.86008345412630705</v>
       </c>
       <c r="E7" s="3">
-        <v>0.77215388234901405</v>
+        <v>0.80122323464919298</v>
       </c>
       <c r="F7" s="3">
-        <v>0.227846117650985</v>
+        <v>0.19877676535080599</v>
       </c>
       <c r="G7" s="3">
-        <v>0.61005531147299696</v>
+        <v>0.65994726775519597</v>
       </c>
       <c r="H7" s="3">
-        <v>0.609379277148412</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.93351162195226001</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.70683121227076096</v>
+        <v>0.65921594553403295</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.98603817546375105</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.79058960296719705</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -620,29 +621,48 @@
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>0.66770809558244604</v>
+        <v>0.64853262469879702</v>
       </c>
       <c r="D8" s="3">
-        <v>0.86388625462254098</v>
+        <v>0.85597889713502096</v>
       </c>
       <c r="E8" s="3">
-        <v>0.80660823278841998</v>
+        <v>0.79541093085300096</v>
       </c>
       <c r="F8" s="3">
-        <v>0.19339176721158</v>
+        <v>0.20458906914699801</v>
       </c>
       <c r="G8" s="3">
-        <v>0.66918958209944601</v>
+        <v>0.64997156537614098</v>
       </c>
       <c r="H8" s="3">
-        <v>0.66844801798444498</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.91917266494068095</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.66809939189600498</v>
-      </c>
+        <v>0.64925129775460699</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.91078053589031205</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.37513205164205099</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -651,5 +671,6 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Clasifica_GEE/Matriz_confusion/Matriz_confusion.xlsx
+++ b/Clasifica_GEE/Matriz_confusion/Matriz_confusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisse\OneDrive\Escritorio\Repositorio\Documentos\Clasifica_GEE\Matriz_confusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFCAA8-89EE-4F57-9D56-A64278747D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF054F9-247A-48E1-8C05-9E329CB0B8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{C7B65278-F974-4EA6-9EFF-EA4A41C71C3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7B65278-F974-4EA6-9EFF-EA4A41C71C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Método </t>
-  </si>
-  <si>
-    <t>Indicadores de validación de la clasificación de imágenes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Exactitud</t>
   </si>
@@ -53,9 +47,6 @@
     <t>Precisión</t>
   </si>
   <si>
-    <t>F measure</t>
-  </si>
-  <si>
     <t>Accurracy</t>
   </si>
   <si>
@@ -81,13 +72,49 @@
   </si>
   <si>
     <t>Tasa TN</t>
+  </si>
+  <si>
+    <t>Indicadores de Validación de la Clasificación de Imágenes Satelitales</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>2010-2013</t>
+  </si>
+  <si>
+    <t>2020-2023</t>
+  </si>
+  <si>
+    <t>Satélite</t>
+  </si>
+  <si>
+    <t>Landast 7</t>
+  </si>
+  <si>
+    <t>Sentinel 2</t>
+  </si>
+  <si>
+    <t>Información con la que se comprueba</t>
+  </si>
+  <si>
+    <t>Uso y Cobertura del Suelo (IGM)</t>
+  </si>
+  <si>
+    <t>Cobertura de Suelo (MAATE)</t>
+  </si>
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>F-measure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +125,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -119,42 +159,123 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,186 +610,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2ECCDC-9A94-4EBF-AEFA-638314812A8E}">
-  <dimension ref="B3:L13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.77451451629666002</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="E8" s="3">
+        <v>0.91652244914964198</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E9" s="3">
+        <v>0.88648482399149098</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.113515176008508</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E11" s="3">
+        <v>0.71338383566438601</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.74269339123231104</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.72</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E13" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.68825182536907503</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.87235783879043804</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.81860451421985403</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.181395485780145</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.68977889356898303</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.68901451335679997</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.95712877497983695</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.55755480686014502</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.65848624235183695</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.86008345412630705</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.80122323464919298</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.19877676535080599</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.65994726775519597</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.65921594553403295</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.98603817546375105</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.79058960296719705</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.64853262469879702</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.85597889713502096</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.79541093085300096</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.20458906914699801</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.64997156537614098</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.64925129775460699</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.91078053589031205</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.37513205164205099</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="E14" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="I4:J4"/>
+  <mergeCells count="13">
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
